--- a/REGULAR/OJT/MONTENEGRO, RODELIO.xlsx
+++ b/REGULAR/OJT/MONTENEGRO, RODELIO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447B4D5A-3E39-4796-A645-868C4AA9E5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="324">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1004,12 +1003,15 @@
   </si>
   <si>
     <t>9/9,12,13</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1888,7 +1890,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,7 +1933,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1995,7 +1997,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2055,7 +2057,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2121,7 +2123,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2184,7 +2186,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2282,7 +2284,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2341,7 +2343,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2408,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2449,7 +2451,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2524,7 +2526,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2712,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2776,7 +2778,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2834,7 +2836,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2900,7 +2902,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2956,7 +2958,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3031,7 +3033,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3074,7 +3076,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3140,7 +3142,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3196,7 +3198,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3294,7 +3296,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3357,7 +3359,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3423,25 +3425,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K719" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K719" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3453,13 +3455,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3468,14 +3470,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3779,7 +3781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3789,7 +3791,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3797,34 +3799,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K719"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane ySplit="1728" topLeftCell="A513" activePane="bottomLeft"/>
+      <pane ySplit="1725" topLeftCell="A513" activePane="bottomLeft"/>
       <selection activeCell="E5" sqref="E5"/>
-      <selection pane="bottomLeft" activeCell="B522" sqref="B522"/>
+      <selection pane="bottomLeft" activeCell="I532" sqref="I532"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3845,7 +3847,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3863,7 +3865,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3881,7 +3883,7 @@
       <c r="J4" s="60"/>
       <c r="K4" s="61"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3889,7 +3891,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3902,7 +3904,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -3919,7 +3921,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3954,7 +3956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3963,7 +3965,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>36.204000000000065</v>
+        <v>41.204000000000065</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3973,12 +3975,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>77.175000000000011</v>
+        <v>81.175000000000011</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -4000,7 +4002,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35582</v>
       </c>
@@ -4020,7 +4022,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>35612</v>
@@ -4041,7 +4043,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f t="shared" ref="A13:A17" si="0">EDATE(A12,1)</f>
         <v>35643</v>
@@ -4062,7 +4064,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>35674</v>
@@ -4083,7 +4085,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>35704</v>
@@ -4104,7 +4106,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>35735</v>
@@ -4125,7 +4127,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -4146,7 +4148,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>44</v>
       </c>
@@ -4164,7 +4166,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>35796</v>
       </c>
@@ -4184,7 +4186,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f>EDATE(A19,1)</f>
         <v>35827</v>
@@ -4205,7 +4207,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" ref="A21:A29" si="1">EDATE(A20,1)</f>
         <v>35855</v>
@@ -4232,7 +4234,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f t="shared" si="1"/>
         <v>35886</v>
@@ -4253,7 +4255,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f t="shared" si="1"/>
         <v>35916</v>
@@ -4274,7 +4276,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f t="shared" si="1"/>
         <v>35947</v>
@@ -4301,7 +4303,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -4322,7 +4324,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>36008</v>
@@ -4343,7 +4345,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>36039</v>
@@ -4364,7 +4366,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="1"/>
         <v>36069</v>
@@ -4385,7 +4387,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f t="shared" si="1"/>
         <v>36100</v>
@@ -4412,7 +4414,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f>EDATE(A29,1)</f>
         <v>36130</v>
@@ -4437,7 +4439,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>52</v>
       </c>
@@ -4455,7 +4457,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36161</v>
       </c>
@@ -4475,7 +4477,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f>EDATE(A32,1)</f>
         <v>36192</v>
@@ -4496,7 +4498,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" ref="A34:A44" si="2">EDATE(A33,1)</f>
         <v>36220</v>
@@ -4517,7 +4519,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f t="shared" si="2"/>
         <v>36251</v>
@@ -4538,7 +4540,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f t="shared" si="2"/>
         <v>36281</v>
@@ -4559,7 +4561,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f t="shared" si="2"/>
         <v>36312</v>
@@ -4580,7 +4582,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f t="shared" si="2"/>
         <v>36342</v>
@@ -4605,7 +4607,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13">
@@ -4623,7 +4625,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f>EDATE(A38,1)</f>
         <v>36373</v>
@@ -4644,7 +4646,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="2"/>
         <v>36404</v>
@@ -4665,7 +4667,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f t="shared" si="2"/>
         <v>36434</v>
@@ -4686,7 +4688,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f t="shared" si="2"/>
         <v>36465</v>
@@ -4707,7 +4709,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f t="shared" si="2"/>
         <v>36495</v>
@@ -4732,7 +4734,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
         <v>54</v>
       </c>
@@ -4750,7 +4752,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>36526</v>
       </c>
@@ -4770,7 +4772,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f>EDATE(A46,1)</f>
         <v>36557</v>
@@ -4791,7 +4793,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f t="shared" ref="A48:A56" si="3">EDATE(A47,1)</f>
         <v>36586</v>
@@ -4812,7 +4814,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f t="shared" si="3"/>
         <v>36617</v>
@@ -4833,7 +4835,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f t="shared" si="3"/>
         <v>36647</v>
@@ -4860,7 +4862,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="3"/>
         <v>36678</v>
@@ -4887,7 +4889,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f t="shared" si="3"/>
         <v>36708</v>
@@ -4908,7 +4910,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f t="shared" si="3"/>
         <v>36739</v>
@@ -4929,7 +4931,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" si="3"/>
         <v>36770</v>
@@ -4950,7 +4952,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="3"/>
         <v>36800</v>
@@ -4971,7 +4973,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f t="shared" si="3"/>
         <v>36831</v>
@@ -4996,7 +4998,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
@@ -5014,7 +5016,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f>EDATE(A56,1)</f>
         <v>36861</v>
@@ -5039,7 +5041,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
         <v>58</v>
       </c>
@@ -5057,7 +5059,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>36892</v>
       </c>
@@ -5077,7 +5079,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f>EDATE(A60,1)</f>
         <v>36923</v>
@@ -5098,7 +5100,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <f t="shared" ref="A62:A72" si="4">EDATE(A61,1)</f>
         <v>36951</v>
@@ -5123,7 +5125,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13">
@@ -5141,7 +5143,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f>EDATE(A62,1)</f>
         <v>36982</v>
@@ -5162,7 +5164,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f t="shared" si="4"/>
         <v>37012</v>
@@ -5187,7 +5189,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13">
@@ -5205,7 +5207,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f>EDATE(A65,1)</f>
         <v>37043</v>
@@ -5226,7 +5228,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" si="4"/>
         <v>37073</v>
@@ -5247,7 +5249,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f t="shared" si="4"/>
         <v>37104</v>
@@ -5272,7 +5274,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13">
@@ -5290,7 +5292,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <f>EDATE(A69,1)</f>
         <v>37135</v>
@@ -5317,7 +5319,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f t="shared" si="4"/>
         <v>37165</v>
@@ -5338,7 +5340,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f>EDATE(A72,1)</f>
         <v>37196</v>
@@ -5359,7 +5361,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f>EDATE(A73,1)</f>
         <v>37226</v>
@@ -5384,7 +5386,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>65</v>
@@ -5404,7 +5406,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>64</v>
       </c>
@@ -5422,7 +5424,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>37257</v>
       </c>
@@ -5442,7 +5444,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f>EDATE(A77,1)</f>
         <v>37288</v>
@@ -5467,7 +5469,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f t="shared" ref="A79:A90" si="5">EDATE(A78,1)</f>
         <v>37316</v>
@@ -5492,7 +5494,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>69</v>
@@ -5514,7 +5516,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f>EDATE(A79,1)</f>
         <v>37347</v>
@@ -5539,7 +5541,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f t="shared" si="5"/>
         <v>37377</v>
@@ -5564,7 +5566,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f t="shared" si="5"/>
         <v>37408</v>
@@ -5585,7 +5587,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="5"/>
         <v>37438</v>
@@ -5610,7 +5612,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -5628,7 +5630,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f>EDATE(A84,1)</f>
         <v>37469</v>
@@ -5653,7 +5655,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f t="shared" si="5"/>
         <v>37500</v>
@@ -5678,7 +5680,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13">
@@ -5696,7 +5698,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f>EDATE(A87,1)</f>
         <v>37530</v>
@@ -5721,7 +5723,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" si="5"/>
         <v>37561</v>
@@ -5746,7 +5748,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13">
@@ -5764,7 +5766,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f>EDATE(A90,1)</f>
         <v>37591</v>
@@ -5787,7 +5789,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>77</v>
@@ -5809,7 +5811,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="48" t="s">
         <v>78</v>
       </c>
@@ -5827,7 +5829,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>37622</v>
       </c>
@@ -5851,7 +5853,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13">
@@ -5869,7 +5871,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f>EDATE(A95,1)</f>
         <v>37653</v>
@@ -5896,7 +5898,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" ref="A98:A109" si="6">EDATE(A97,1)</f>
         <v>37681</v>
@@ -5921,7 +5923,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>82</v>
@@ -5941,7 +5943,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13">
@@ -5959,7 +5961,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f>EDATE(A98,1)</f>
         <v>37712</v>
@@ -5984,7 +5986,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f t="shared" si="6"/>
         <v>37742</v>
@@ -6009,7 +6011,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>84</v>
@@ -6031,7 +6033,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f>EDATE(A102,1)</f>
         <v>37773</v>
@@ -6056,7 +6058,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13">
@@ -6074,7 +6076,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f>EDATE(A104,1)</f>
         <v>37803</v>
@@ -6101,7 +6103,7 @@
         <v>37628</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f t="shared" si="6"/>
         <v>37834</v>
@@ -6122,7 +6124,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f t="shared" si="6"/>
         <v>37865</v>
@@ -6147,7 +6149,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" si="6"/>
         <v>37895</v>
@@ -6172,7 +6174,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>90</v>
@@ -6194,7 +6196,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f>EDATE(A109,1)</f>
         <v>37926</v>
@@ -6219,7 +6221,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f>EDATE(A111,1)</f>
         <v>37956</v>
@@ -6244,7 +6246,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>94</v>
@@ -6264,7 +6266,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="48" t="s">
         <v>93</v>
       </c>
@@ -6282,7 +6284,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>37987</v>
       </c>
@@ -6306,7 +6308,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>95</v>
@@ -6328,7 +6330,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f>EDATE(A115,1)</f>
         <v>38018</v>
@@ -6353,7 +6355,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>96</v>
@@ -6375,7 +6377,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>38047</v>
@@ -6400,7 +6402,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>100</v>
@@ -6422,7 +6424,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f>EDATE(A119,1)</f>
         <v>38078</v>
@@ -6447,7 +6449,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>102</v>
@@ -6469,7 +6471,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f>EDATE(A121,1)</f>
         <v>38108</v>
@@ -6494,7 +6496,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" ref="A124:A136" si="7">EDATE(A123,1)</f>
         <v>38139</v>
@@ -6519,7 +6521,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13">
@@ -6537,7 +6539,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f>EDATE(A124,1)</f>
         <v>38169</v>
@@ -6562,7 +6564,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13">
@@ -6580,7 +6582,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f>EDATE(A126,1)</f>
         <v>38200</v>
@@ -6605,7 +6607,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>45</v>
@@ -6627,7 +6629,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13">
@@ -6645,7 +6647,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f>EDATE(A128,1)</f>
         <v>38231</v>
@@ -6670,7 +6672,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13">
@@ -6688,7 +6690,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f>EDATE(A131,1)</f>
         <v>38261</v>
@@ -6713,7 +6715,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13">
@@ -6731,7 +6733,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f>EDATE(A133,1)</f>
         <v>38292</v>
@@ -6758,7 +6760,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f t="shared" si="7"/>
         <v>38322</v>
@@ -6779,7 +6781,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="48" t="s">
         <v>111</v>
       </c>
@@ -6797,7 +6799,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>38353</v>
       </c>
@@ -6821,7 +6823,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>113</v>
@@ -6843,7 +6845,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13">
@@ -6861,7 +6863,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f>EDATE(A138,1)</f>
         <v>38384</v>
@@ -6884,7 +6886,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13">
@@ -6902,7 +6904,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f>EDATE(A141,1)</f>
         <v>38412</v>
@@ -6923,7 +6925,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" ref="A144:A160" si="8">EDATE(A143,1)</f>
         <v>38443</v>
@@ -6948,7 +6950,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>49</v>
@@ -6970,7 +6972,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>49</v>
@@ -6992,7 +6994,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13">
@@ -7010,7 +7012,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f>EDATE(A144,1)</f>
         <v>38473</v>
@@ -7031,7 +7033,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>45</v>
@@ -7053,7 +7055,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f>EDATE(A148,1)</f>
         <v>38504</v>
@@ -7074,7 +7076,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f t="shared" si="8"/>
         <v>38534</v>
@@ -7095,7 +7097,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f t="shared" si="8"/>
         <v>38565</v>
@@ -7120,7 +7122,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>120</v>
@@ -7140,7 +7142,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13">
@@ -7158,7 +7160,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f>EDATE(A152,1)</f>
         <v>38596</v>
@@ -7183,7 +7185,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>45</v>
@@ -7205,7 +7207,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13">
@@ -7223,7 +7225,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <f>EDATE(A155,1)</f>
         <v>38626</v>
@@ -7244,7 +7246,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f t="shared" si="8"/>
         <v>38657</v>
@@ -7265,7 +7267,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f t="shared" si="8"/>
         <v>38687</v>
@@ -7290,7 +7292,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>51</v>
@@ -7312,7 +7314,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13">
@@ -7330,7 +7332,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="48" t="s">
         <v>126</v>
       </c>
@@ -7348,7 +7350,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>38718</v>
       </c>
@@ -7368,7 +7370,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f>EDATE(A164,1)</f>
         <v>38749</v>
@@ -7393,7 +7395,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13">
@@ -7411,7 +7413,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f>EDATE(A165,1)</f>
         <v>38777</v>
@@ -7434,7 +7436,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>45</v>
@@ -7456,7 +7458,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13">
@@ -7474,7 +7476,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <f>EDATE(A167,1)</f>
         <v>38808</v>
@@ -7495,7 +7497,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>49</v>
@@ -7517,7 +7519,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>49</v>
@@ -7539,7 +7541,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <f>EDATE(A170,1)</f>
         <v>38838</v>
@@ -7560,7 +7562,7 @@
       <c r="J173" s="12"/>
       <c r="K173" s="15"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <f t="shared" ref="A174:A184" si="9">EDATE(A173,1)</f>
         <v>38869</v>
@@ -7581,7 +7583,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <f t="shared" si="9"/>
         <v>38899</v>
@@ -7606,7 +7608,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13">
@@ -7624,7 +7626,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f>EDATE(A175,1)</f>
         <v>38930</v>
@@ -7649,7 +7651,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>45</v>
@@ -7671,7 +7673,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13">
@@ -7689,7 +7691,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f>EDATE(A177,1)</f>
         <v>38961</v>
@@ -7710,7 +7712,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f t="shared" si="9"/>
         <v>38991</v>
@@ -7735,7 +7737,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13">
@@ -7753,7 +7755,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f>EDATE(A181,1)</f>
         <v>39022</v>
@@ -7774,7 +7776,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f t="shared" si="9"/>
         <v>39052</v>
@@ -7799,7 +7801,7 @@
         <v>38819</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>87</v>
@@ -7821,7 +7823,7 @@
         <v>38910</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>51</v>
@@ -7843,7 +7845,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="48" t="s">
         <v>136</v>
       </c>
@@ -7861,7 +7863,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>39083</v>
       </c>
@@ -7885,7 +7887,7 @@
         <v>39295</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13">
@@ -7903,7 +7905,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f>EDATE(A188,1)</f>
         <v>39114</v>
@@ -7928,7 +7930,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>87</v>
@@ -7950,7 +7952,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13">
@@ -7968,7 +7970,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f>EDATE(A190,1)</f>
         <v>39142</v>
@@ -7993,7 +7995,7 @@
         <v>39085</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>92</v>
@@ -8015,7 +8017,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13">
@@ -8033,7 +8035,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f>EDATE(A193,1)</f>
         <v>39173</v>
@@ -8060,7 +8062,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13">
@@ -8078,7 +8080,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f>EDATE(A196,1)</f>
         <v>39203</v>
@@ -8105,7 +8107,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>141</v>
@@ -8127,7 +8129,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13">
@@ -8145,7 +8147,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f>EDATE(A198,1)</f>
         <v>39234</v>
@@ -8172,7 +8174,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>146</v>
@@ -8192,7 +8194,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20"/>
       <c r="C203" s="13">
@@ -8210,7 +8212,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <f>EDATE(A201,1)</f>
         <v>39264</v>
@@ -8237,7 +8239,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>141</v>
@@ -8259,7 +8261,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20"/>
       <c r="C206" s="13">
@@ -8277,7 +8279,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f>EDATE(A204,1)</f>
         <v>39295</v>
@@ -8302,7 +8304,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>152</v>
@@ -8324,7 +8326,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13">
@@ -8342,7 +8344,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f>EDATE(A207,1)</f>
         <v>39326</v>
@@ -8367,7 +8369,7 @@
         <v>39425</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>141</v>
@@ -8389,7 +8391,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>155</v>
@@ -8411,7 +8413,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>155</v>
@@ -8433,7 +8435,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13">
@@ -8451,7 +8453,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f>EDATE(A210,1)</f>
         <v>39356</v>
@@ -8472,7 +8474,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <f t="shared" ref="A216" si="10">EDATE(A215,1)</f>
         <v>39387</v>
@@ -8493,7 +8495,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f>EDATE(A216,1)</f>
         <v>39417</v>
@@ -8518,7 +8520,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>76</v>
@@ -8540,7 +8542,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="48" t="s">
         <v>159</v>
       </c>
@@ -8558,7 +8560,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>39448</v>
       </c>
@@ -8582,7 +8584,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>141</v>
@@ -8602,7 +8604,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>155</v>
@@ -8624,7 +8626,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>141</v>
@@ -8646,7 +8648,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>74</v>
@@ -8668,7 +8670,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f>EDATE(A220,1)</f>
         <v>39479</v>
@@ -8693,7 +8695,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f t="shared" ref="A226:A231" si="11">EDATE(A225,1)</f>
         <v>39508</v>
@@ -8718,7 +8720,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>166</v>
@@ -8740,7 +8742,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f>EDATE(A226,1)</f>
         <v>39539</v>
@@ -8765,7 +8767,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>168</v>
@@ -8787,7 +8789,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>39569</v>
@@ -8812,7 +8814,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f t="shared" si="11"/>
         <v>39600</v>
@@ -8837,7 +8839,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>71</v>
@@ -8859,7 +8861,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f>EDATE(A231,1)</f>
         <v>39630</v>
@@ -8884,7 +8886,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>155</v>
@@ -8908,7 +8910,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>173</v>
@@ -8930,7 +8932,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f>EDATE(A233,1)</f>
         <v>39661</v>
@@ -8957,7 +8959,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20"/>
       <c r="C237" s="13">
@@ -8975,7 +8977,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f>EDATE(A236,1)</f>
         <v>39692</v>
@@ -9000,7 +9002,7 @@
         <v>39456</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>175</v>
@@ -9022,7 +9024,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>141</v>
@@ -9044,7 +9046,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>141</v>
@@ -9064,7 +9066,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>178</v>
@@ -9086,7 +9088,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f>EDATE(A238,1)</f>
         <v>39722</v>
@@ -9113,7 +9115,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>141</v>
@@ -9135,7 +9137,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>181</v>
@@ -9157,7 +9159,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f>EDATE(A243,1)</f>
         <v>39753</v>
@@ -9182,7 +9184,7 @@
         <v>39793</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>141</v>
@@ -9204,7 +9206,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>141</v>
@@ -9226,7 +9228,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>184</v>
@@ -9248,7 +9250,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f>EDATE(A246,1)</f>
         <v>39783</v>
@@ -9273,7 +9275,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="48" t="s">
         <v>186</v>
       </c>
@@ -9291,7 +9293,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>39814</v>
       </c>
@@ -9317,7 +9319,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>141</v>
@@ -9339,7 +9341,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20"/>
       <c r="C254" s="13">
@@ -9357,7 +9359,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>39845</v>
       </c>
@@ -9383,7 +9385,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20"/>
       <c r="C256" s="13">
@@ -9401,7 +9403,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f>EDATE(A255,1)</f>
         <v>39873</v>
@@ -9426,7 +9428,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>144</v>
@@ -9446,7 +9448,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>155</v>
@@ -9468,7 +9470,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>74</v>
@@ -9490,7 +9492,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f>EDATE(A257,1)</f>
         <v>39904</v>
@@ -9515,7 +9517,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>49</v>
@@ -9537,7 +9539,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20"/>
       <c r="C263" s="13">
@@ -9555,7 +9557,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f>EDATE(A261,1)</f>
         <v>39934</v>
@@ -9576,7 +9578,7 @@
       <c r="J264" s="12"/>
       <c r="K264" s="15"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f t="shared" ref="A265:A278" si="12">EDATE(A264,1)</f>
         <v>39965</v>
@@ -9601,7 +9603,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>155</v>
@@ -9625,7 +9627,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>155</v>
@@ -9647,7 +9649,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20"/>
       <c r="C268" s="13">
@@ -9665,7 +9667,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <f>EDATE(A265,1)</f>
         <v>39995</v>
@@ -9690,7 +9692,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>199</v>
@@ -9712,7 +9714,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20"/>
       <c r="C271" s="13">
@@ -9730,7 +9732,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f>EDATE(A269,1)</f>
         <v>40026</v>
@@ -9751,7 +9753,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <f t="shared" si="12"/>
         <v>40057</v>
@@ -9776,7 +9778,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>202</v>
@@ -9798,7 +9800,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f>EDATE(A273,1)</f>
         <v>40087</v>
@@ -9825,7 +9827,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>204</v>
@@ -9847,7 +9849,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f>EDATE(A275,1)</f>
         <v>40118</v>
@@ -9872,7 +9874,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f t="shared" si="12"/>
         <v>40148</v>
@@ -9899,7 +9901,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>207</v>
@@ -9921,7 +9923,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="48" t="s">
         <v>208</v>
       </c>
@@ -9939,7 +9941,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>40179</v>
       </c>
@@ -9963,7 +9965,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f>EDATE(A281,1)</f>
         <v>40210</v>
@@ -9984,7 +9986,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f t="shared" ref="A283:A294" si="13">EDATE(A282,1)</f>
         <v>40238</v>
@@ -10007,7 +10009,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20"/>
       <c r="C284" s="13">
@@ -10025,7 +10027,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <f>EDATE(A283,1)</f>
         <v>40269</v>
@@ -10046,7 +10048,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f t="shared" si="13"/>
         <v>40299</v>
@@ -10067,7 +10069,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <f t="shared" si="13"/>
         <v>40330</v>
@@ -10090,7 +10092,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20"/>
       <c r="C288" s="13">
@@ -10108,7 +10110,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f>EDATE(A287,1)</f>
         <v>40360</v>
@@ -10129,7 +10131,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f t="shared" si="13"/>
         <v>40391</v>
@@ -10150,7 +10152,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f t="shared" si="13"/>
         <v>40422</v>
@@ -10171,7 +10173,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <f t="shared" si="13"/>
         <v>40452</v>
@@ -10192,7 +10194,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f t="shared" si="13"/>
         <v>40483</v>
@@ -10213,7 +10215,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f t="shared" si="13"/>
         <v>40513</v>
@@ -10234,7 +10236,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="48" t="s">
         <v>213</v>
       </c>
@@ -10252,7 +10254,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>40544</v>
       </c>
@@ -10272,7 +10274,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <f>EDATE(A296,1)</f>
         <v>40575</v>
@@ -10295,7 +10297,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20"/>
       <c r="C298" s="13">
@@ -10313,7 +10315,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f>EDATE(A297,1)</f>
         <v>40603</v>
@@ -10338,7 +10340,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>45</v>
@@ -10360,7 +10362,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>218</v>
@@ -10382,7 +10384,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f>EDATE(A299,1)</f>
         <v>40634</v>
@@ -10405,7 +10407,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>220</v>
@@ -10427,7 +10429,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f>EDATE(A302,1)</f>
         <v>40664</v>
@@ -10452,7 +10454,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <f t="shared" ref="A305:A317" si="14">EDATE(A304,1)</f>
         <v>40695</v>
@@ -10477,7 +10479,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>65</v>
@@ -10499,7 +10501,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f>EDATE(A305,1)</f>
         <v>40725</v>
@@ -10524,7 +10526,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>168</v>
@@ -10546,7 +10548,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f>EDATE(A307,1)</f>
         <v>40756</v>
@@ -10571,7 +10573,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f t="shared" si="14"/>
         <v>40787</v>
@@ -10596,7 +10598,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>49</v>
@@ -10618,7 +10620,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>67</v>
@@ -10640,7 +10642,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>87</v>
@@ -10662,7 +10664,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>229</v>
@@ -10684,7 +10686,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f>EDATE(A310,1)</f>
         <v>40817</v>
@@ -10709,7 +10711,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f t="shared" si="14"/>
         <v>40848</v>
@@ -10734,7 +10736,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f t="shared" si="14"/>
         <v>40878</v>
@@ -10759,7 +10761,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="48" t="s">
         <v>231</v>
       </c>
@@ -10777,7 +10779,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>40909</v>
       </c>
@@ -10801,7 +10803,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>205</v>
@@ -10823,7 +10825,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <f>EDATE(A319,1)</f>
         <v>40940</v>
@@ -10848,7 +10850,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f t="shared" ref="A322:A343" si="15">EDATE(A321,1)</f>
         <v>40969</v>
@@ -10873,7 +10875,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>144</v>
@@ -10893,7 +10895,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>205</v>
@@ -10915,7 +10917,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f>EDATE(A322,1)</f>
         <v>41000</v>
@@ -10942,7 +10944,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>49</v>
@@ -10964,7 +10966,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>238</v>
@@ -10984,7 +10986,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f>EDATE(A325,1)</f>
         <v>41030</v>
@@ -11009,7 +11011,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f t="shared" si="15"/>
         <v>41061</v>
@@ -11034,7 +11036,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>49</v>
@@ -11056,7 +11058,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>45</v>
@@ -11078,7 +11080,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>239</v>
@@ -11100,7 +11102,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f>EDATE(A329,1)</f>
         <v>41091</v>
@@ -11125,7 +11127,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>45</v>
@@ -11147,7 +11149,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>49</v>
@@ -11169,7 +11171,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>205</v>
@@ -11191,7 +11193,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f>EDATE(A333,1)</f>
         <v>41122</v>
@@ -11216,7 +11218,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <f t="shared" si="15"/>
         <v>41153</v>
@@ -11241,7 +11243,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>205</v>
@@ -11263,7 +11265,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <f>EDATE(A338,1)</f>
         <v>41183</v>
@@ -11290,7 +11292,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>239</v>
@@ -11312,7 +11314,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f>EDATE(A340,1)</f>
         <v>41214</v>
@@ -11337,7 +11339,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <f t="shared" si="15"/>
         <v>41244</v>
@@ -11362,7 +11364,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="48" t="s">
         <v>251</v>
       </c>
@@ -11380,7 +11382,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>41275</v>
       </c>
@@ -11404,7 +11406,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20"/>
       <c r="C346" s="13">
@@ -11422,7 +11424,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <f>EDATE(A345,1)</f>
         <v>41306</v>
@@ -11443,7 +11445,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <f t="shared" ref="A348:A364" si="16">EDATE(A347,1)</f>
         <v>41334</v>
@@ -11468,7 +11470,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>76</v>
@@ -11490,7 +11492,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20"/>
       <c r="C350" s="13">
@@ -11508,7 +11510,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <f>EDATE(A348,1)</f>
         <v>41365</v>
@@ -11533,7 +11535,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20"/>
       <c r="C352" s="13">
@@ -11551,7 +11553,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <f>EDATE(A351,1)</f>
         <v>41395</v>
@@ -11576,7 +11578,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20"/>
       <c r="C354" s="13">
@@ -11594,7 +11596,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <f>EDATE(A353,1)</f>
         <v>41426</v>
@@ -11619,7 +11621,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20"/>
       <c r="C356" s="13">
@@ -11637,7 +11639,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <f>EDATE(A355,1)</f>
         <v>41456</v>
@@ -11664,7 +11666,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>141</v>
@@ -11686,7 +11688,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20"/>
       <c r="C359" s="13">
@@ -11704,7 +11706,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <f>EDATE(A357,1)</f>
         <v>41487</v>
@@ -11725,7 +11727,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <f t="shared" si="16"/>
         <v>41518</v>
@@ -11750,7 +11752,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>265</v>
@@ -11772,7 +11774,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f>EDATE(A361,1)</f>
         <v>41548</v>
@@ -11797,7 +11799,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <f t="shared" si="16"/>
         <v>41579</v>
@@ -11822,7 +11824,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>268</v>
@@ -11844,7 +11846,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <f>EDATE(A364,1)</f>
         <v>41609</v>
@@ -11869,7 +11871,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="51" t="s">
         <v>252</v>
       </c>
@@ -11887,7 +11889,7 @@
       <c r="J367" s="12"/>
       <c r="K367" s="15"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>41640</v>
       </c>
@@ -11911,7 +11913,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>214</v>
@@ -11931,7 +11933,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20"/>
       <c r="C370" s="13">
@@ -11949,7 +11951,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <f>EDATE(A368,1)</f>
         <v>41671</v>
@@ -11970,7 +11972,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <f t="shared" ref="A372:A385" si="17">EDATE(A371,1)</f>
         <v>41699</v>
@@ -11993,7 +11995,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20"/>
       <c r="C373" s="13">
@@ -12011,7 +12013,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f>EDATE(A372,1)</f>
         <v>41730</v>
@@ -12032,7 +12034,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <f t="shared" si="17"/>
         <v>41760</v>
@@ -12057,7 +12059,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20"/>
       <c r="C376" s="13">
@@ -12075,7 +12077,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f>EDATE(A375,1)</f>
         <v>41791</v>
@@ -12096,7 +12098,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <f t="shared" si="17"/>
         <v>41821</v>
@@ -12117,7 +12119,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <f t="shared" si="17"/>
         <v>41852</v>
@@ -12142,7 +12144,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13">
@@ -12160,7 +12162,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <f>EDATE(A379,1)</f>
         <v>41883</v>
@@ -12185,7 +12187,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>87</v>
@@ -12207,7 +12209,7 @@
         <v>41800</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20"/>
       <c r="C383" s="13">
@@ -12225,7 +12227,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <f>EDATE(A381,1)</f>
         <v>41913</v>
@@ -12246,7 +12248,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <f t="shared" si="17"/>
         <v>41944</v>
@@ -12269,7 +12271,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <f>EDATE(A385,1)</f>
         <v>41974</v>
@@ -12290,7 +12292,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="48" t="s">
         <v>253</v>
       </c>
@@ -12308,7 +12310,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>42005</v>
       </c>
@@ -12332,7 +12334,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>45</v>
@@ -12354,7 +12356,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20"/>
       <c r="C390" s="13">
@@ -12372,7 +12374,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f>EDATE(A388,1)</f>
         <v>42036</v>
@@ -12393,7 +12395,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <f t="shared" ref="A392:A403" si="18">EDATE(A391,1)</f>
         <v>42064</v>
@@ -12418,7 +12420,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13">
@@ -12436,7 +12438,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <f>EDATE(A392,1)</f>
         <v>42095</v>
@@ -12457,7 +12459,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f t="shared" si="18"/>
         <v>42125</v>
@@ -12478,7 +12480,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <f t="shared" si="18"/>
         <v>42156</v>
@@ -12499,7 +12501,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <f t="shared" si="18"/>
         <v>42186</v>
@@ -12520,7 +12522,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <f t="shared" si="18"/>
         <v>42217</v>
@@ -12545,7 +12547,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13">
@@ -12563,7 +12565,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <f>EDATE(A398,1)</f>
         <v>42248</v>
@@ -12588,7 +12590,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13">
@@ -12606,7 +12608,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <f>EDATE(A400,1)</f>
         <v>42278</v>
@@ -12627,7 +12629,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <f t="shared" si="18"/>
         <v>42309</v>
@@ -12652,7 +12654,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13">
@@ -12670,7 +12672,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f>EDATE(A403,1)</f>
         <v>42339</v>
@@ -12695,7 +12697,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="51" t="s">
         <v>254</v>
       </c>
@@ -12713,7 +12715,7 @@
       <c r="J406" s="12"/>
       <c r="K406" s="15"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>42370</v>
       </c>
@@ -12737,7 +12739,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20"/>
       <c r="C408" s="13">
@@ -12755,7 +12757,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <f>EDATE(A407,1)</f>
         <v>42401</v>
@@ -12776,7 +12778,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f t="shared" ref="A410:A423" si="19">EDATE(A409,1)</f>
         <v>42430</v>
@@ -12801,7 +12803,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>120</v>
@@ -12821,7 +12823,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13">
@@ -12839,7 +12841,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <f>EDATE(A410,1)</f>
         <v>42461</v>
@@ -12864,7 +12866,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13">
@@ -12882,7 +12884,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <f>EDATE(A413,1)</f>
         <v>42491</v>
@@ -12903,7 +12905,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <f>EDATE(A415,1)</f>
         <v>42522</v>
@@ -12928,7 +12930,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13">
@@ -12946,7 +12948,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <f>EDATE(A416,1)</f>
         <v>42552</v>
@@ -12967,7 +12969,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <f t="shared" si="19"/>
         <v>42583</v>
@@ -12992,7 +12994,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>87</v>
@@ -13014,7 +13016,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13">
@@ -13032,7 +13034,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <f>EDATE(A419,1)</f>
         <v>42614</v>
@@ -13057,7 +13059,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <f t="shared" si="19"/>
         <v>42644</v>
@@ -13082,7 +13084,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>69</v>
@@ -13104,7 +13106,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <f>EDATE(A423,1)</f>
         <v>42675</v>
@@ -13129,7 +13131,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <f>EDATE(A425,1)</f>
         <v>42705</v>
@@ -13154,7 +13156,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>290</v>
@@ -13174,7 +13176,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="48" t="s">
         <v>255</v>
       </c>
@@ -13192,7 +13194,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>42736</v>
       </c>
@@ -13216,7 +13218,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <f>EDATE(A429,1)</f>
         <v>42767</v>
@@ -13235,7 +13237,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>292</v>
@@ -13257,7 +13259,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <f>EDATE(A430,1)</f>
         <v>42795</v>
@@ -13282,7 +13284,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f t="shared" ref="A433:A443" si="20">EDATE(A432,1)</f>
         <v>42826</v>
@@ -13303,7 +13305,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <f t="shared" si="20"/>
         <v>42856</v>
@@ -13328,7 +13330,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>224</v>
@@ -13350,7 +13352,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <f>EDATE(A434,1)</f>
         <v>42887</v>
@@ -13375,7 +13377,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <f t="shared" si="20"/>
         <v>42917</v>
@@ -13396,7 +13398,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <f t="shared" si="20"/>
         <v>42948</v>
@@ -13421,7 +13423,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13">
@@ -13439,7 +13441,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <f>EDATE(A438,1)</f>
         <v>42979</v>
@@ -13464,7 +13466,7 @@
         <v>42895</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13">
@@ -13482,7 +13484,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <f>EDATE(A440,1)</f>
         <v>43009</v>
@@ -13503,7 +13505,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <f t="shared" si="20"/>
         <v>43040</v>
@@ -13524,7 +13526,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <f>EDATE(A443,1)</f>
         <v>43070</v>
@@ -13549,7 +13551,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>51</v>
@@ -13571,7 +13573,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="48" t="s">
         <v>298</v>
       </c>
@@ -13589,7 +13591,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>43101</v>
       </c>
@@ -13609,7 +13611,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <f>EDATE(A447,1)</f>
         <v>43132</v>
@@ -13634,7 +13636,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>49</v>
@@ -13656,7 +13658,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20"/>
       <c r="C450" s="13">
@@ -13674,7 +13676,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <f>EDATE(A448,1)</f>
         <v>43160</v>
@@ -13699,7 +13701,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <f t="shared" ref="A452:A464" si="21">EDATE(A451,1)</f>
         <v>43191</v>
@@ -13724,7 +13726,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <f t="shared" si="21"/>
         <v>43221</v>
@@ -13745,7 +13747,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <f t="shared" si="21"/>
         <v>43252</v>
@@ -13770,7 +13772,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>49</v>
@@ -13792,7 +13794,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20"/>
       <c r="C456" s="13">
@@ -13810,7 +13812,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <f>EDATE(A454,1)</f>
         <v>43282</v>
@@ -13835,7 +13837,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <f t="shared" si="21"/>
         <v>43313</v>
@@ -13860,7 +13862,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <f t="shared" si="21"/>
         <v>43344</v>
@@ -13881,7 +13883,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <f t="shared" si="21"/>
         <v>43374</v>
@@ -13906,7 +13908,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>45</v>
@@ -13928,7 +13930,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20"/>
       <c r="C462" s="13">
@@ -13946,7 +13948,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <f>EDATE(A460,1)</f>
         <v>43405</v>
@@ -13971,7 +13973,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <f t="shared" si="21"/>
         <v>43435</v>
@@ -13996,7 +13998,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="48" t="s">
         <v>305</v>
       </c>
@@ -14014,7 +14016,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>43466</v>
       </c>
@@ -14038,7 +14040,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20"/>
       <c r="C467" s="13">
@@ -14056,7 +14058,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <f>EDATE(A466,1)</f>
         <v>43497</v>
@@ -14077,7 +14079,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <f t="shared" ref="A469:A479" si="22">EDATE(A468,1)</f>
         <v>43525</v>
@@ -14100,7 +14102,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20"/>
       <c r="C470" s="13">
@@ -14118,7 +14120,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <f>EDATE(A469,1)</f>
         <v>43556</v>
@@ -14139,7 +14141,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <f t="shared" si="22"/>
         <v>43586</v>
@@ -14160,7 +14162,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <f t="shared" si="22"/>
         <v>43617</v>
@@ -14183,7 +14185,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <f t="shared" si="22"/>
         <v>43647</v>
@@ -14208,7 +14210,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <f t="shared" si="22"/>
         <v>43678</v>
@@ -14233,7 +14235,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20"/>
       <c r="C476" s="13">
@@ -14251,7 +14253,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <f>EDATE(A475,1)</f>
         <v>43709</v>
@@ -14272,7 +14274,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <f t="shared" si="22"/>
         <v>43739</v>
@@ -14297,7 +14299,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <f t="shared" si="22"/>
         <v>43770</v>
@@ -14322,7 +14324,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20"/>
       <c r="C480" s="13">
@@ -14340,7 +14342,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <f>EDATE(A479,1)</f>
         <v>43800</v>
@@ -14365,7 +14367,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>312</v>
@@ -14385,7 +14387,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="48" t="s">
         <v>311</v>
       </c>
@@ -14403,7 +14405,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>43831</v>
       </c>
@@ -14425,7 +14427,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>214</v>
@@ -14445,7 +14447,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20"/>
       <c r="C486" s="13">
@@ -14463,7 +14465,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <f>EDATE(A484,1)</f>
         <v>43862</v>
@@ -14484,7 +14486,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <f t="shared" ref="A488:A497" si="23">EDATE(A487,1)</f>
         <v>43891</v>
@@ -14509,7 +14511,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20"/>
       <c r="C489" s="13">
@@ -14527,7 +14529,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <f>EDATE(A488,1)</f>
         <v>43922</v>
@@ -14548,7 +14550,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <f t="shared" si="23"/>
         <v>43952</v>
@@ -14569,7 +14571,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <f t="shared" si="23"/>
         <v>43983</v>
@@ -14590,7 +14592,7 @@
       <c r="J492" s="12"/>
       <c r="K492" s="15"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <f t="shared" si="23"/>
         <v>44013</v>
@@ -14611,7 +14613,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <f>EDATE(A493,1)</f>
         <v>44044</v>
@@ -14632,7 +14634,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <f t="shared" si="23"/>
         <v>44075</v>
@@ -14653,7 +14655,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <f t="shared" si="23"/>
         <v>44105</v>
@@ -14674,7 +14676,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <f t="shared" si="23"/>
         <v>44136</v>
@@ -14695,7 +14697,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <f>EDATE(A497,1)</f>
         <v>44166</v>
@@ -14716,7 +14718,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="48" t="s">
         <v>317</v>
       </c>
@@ -14734,7 +14736,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>44197</v>
       </c>
@@ -14754,7 +14756,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <f>EDATE(A500,1)</f>
         <v>44228</v>
@@ -14775,7 +14777,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <f t="shared" ref="A502:A511" si="24">EDATE(A501,1)</f>
         <v>44256</v>
@@ -14796,7 +14798,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <f t="shared" si="24"/>
         <v>44287</v>
@@ -14817,7 +14819,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <f t="shared" si="24"/>
         <v>44317</v>
@@ -14838,7 +14840,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <f t="shared" si="24"/>
         <v>44348</v>
@@ -14859,7 +14861,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <f t="shared" si="24"/>
         <v>44378</v>
@@ -14880,7 +14882,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <f t="shared" si="24"/>
         <v>44409</v>
@@ -14901,7 +14903,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <f t="shared" si="24"/>
         <v>44440</v>
@@ -14922,7 +14924,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <f t="shared" si="24"/>
         <v>44470</v>
@@ -14943,7 +14945,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <f t="shared" si="24"/>
         <v>44501</v>
@@ -14964,7 +14966,7 @@
       <c r="J510" s="12"/>
       <c r="K510" s="15"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <f t="shared" si="24"/>
         <v>44531</v>
@@ -14989,7 +14991,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="48" t="s">
         <v>318</v>
       </c>
@@ -15007,7 +15009,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>44562</v>
       </c>
@@ -15027,7 +15029,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <f>EDATE(A513,1)</f>
         <v>44593</v>
@@ -15048,7 +15050,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <f t="shared" ref="A515:A519" si="25">EDATE(A514,1)</f>
         <v>44621</v>
@@ -15069,7 +15071,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <f t="shared" si="25"/>
         <v>44652</v>
@@ -15090,7 +15092,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <f t="shared" si="25"/>
         <v>44682</v>
@@ -15111,7 +15113,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <f t="shared" si="25"/>
         <v>44713</v>
@@ -15132,7 +15134,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <f t="shared" si="25"/>
         <v>44743</v>
@@ -15159,7 +15161,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="41">
         <v>44774</v>
       </c>
@@ -15179,7 +15181,7 @@
       <c r="J520" s="12"/>
       <c r="K520" s="15"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>44805</v>
       </c>
@@ -15205,7 +15207,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>44835</v>
       </c>
@@ -15225,7 +15227,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>44866</v>
       </c>
@@ -15245,7 +15247,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>44896</v>
       </c>
@@ -15265,7 +15267,7 @@
       <c r="J524" s="12"/>
       <c r="K524" s="15"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="48" t="s">
         <v>320</v>
       </c>
@@ -15283,7 +15285,7 @@
       <c r="J525" s="12"/>
       <c r="K525" s="15"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>44927</v>
       </c>
@@ -15303,7 +15305,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>44958</v>
       </c>
@@ -15323,83 +15325,93 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>44986</v>
       </c>
       <c r="B528" s="20"/>
-      <c r="C528" s="13"/>
+      <c r="C528" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D528" s="39"/>
       <c r="E528" s="9"/>
       <c r="F528" s="20"/>
-      <c r="G528" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G528" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H528" s="39"/>
       <c r="I528" s="9"/>
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>45017</v>
       </c>
       <c r="B529" s="20"/>
-      <c r="C529" s="13"/>
+      <c r="C529" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D529" s="39"/>
       <c r="E529" s="9"/>
       <c r="F529" s="20"/>
-      <c r="G529" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G529" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H529" s="39"/>
       <c r="I529" s="9"/>
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>45047</v>
       </c>
       <c r="B530" s="20"/>
-      <c r="C530" s="13"/>
+      <c r="C530" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D530" s="39"/>
       <c r="E530" s="9"/>
       <c r="F530" s="20"/>
-      <c r="G530" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G530" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H530" s="39"/>
       <c r="I530" s="9"/>
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>45078</v>
       </c>
       <c r="B531" s="20"/>
-      <c r="C531" s="13"/>
+      <c r="C531" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D531" s="39"/>
       <c r="E531" s="9"/>
       <c r="F531" s="20"/>
-      <c r="G531" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G531" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H531" s="39"/>
       <c r="I531" s="9"/>
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>45108</v>
       </c>
-      <c r="B532" s="20"/>
+      <c r="B532" s="20" t="s">
+        <v>323</v>
+      </c>
       <c r="C532" s="13"/>
       <c r="D532" s="39"/>
       <c r="E532" s="9"/>
@@ -15408,12 +15420,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H532" s="39"/>
+      <c r="H532" s="39">
+        <v>1</v>
+      </c>
       <c r="I532" s="9"/>
       <c r="J532" s="11"/>
-      <c r="K532" s="20"/>
-    </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K532" s="49">
+        <v>45121</v>
+      </c>
+    </row>
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>45139</v>
       </c>
@@ -15431,7 +15447,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>45170</v>
       </c>
@@ -15449,7 +15465,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>45200</v>
       </c>
@@ -15467,7 +15483,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>45231</v>
       </c>
@@ -15485,7 +15501,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>45261</v>
       </c>
@@ -15503,7 +15519,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>45292</v>
       </c>
@@ -15521,7 +15537,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>45323</v>
       </c>
@@ -15539,7 +15555,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>45352</v>
       </c>
@@ -15557,7 +15573,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>45383</v>
       </c>
@@ -15575,7 +15591,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>45413</v>
       </c>
@@ -15593,7 +15609,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>45444</v>
       </c>
@@ -15611,7 +15627,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>45474</v>
       </c>
@@ -15629,7 +15645,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>45505</v>
       </c>
@@ -15647,7 +15663,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>45536</v>
       </c>
@@ -15665,7 +15681,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>45566</v>
       </c>
@@ -15683,7 +15699,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>45597</v>
       </c>
@@ -15701,7 +15717,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>45627</v>
       </c>
@@ -15719,7 +15735,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>45658</v>
       </c>
@@ -15737,7 +15753,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>45689</v>
       </c>
@@ -15755,7 +15771,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>45717</v>
       </c>
@@ -15773,7 +15789,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>45748</v>
       </c>
@@ -15791,7 +15807,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>45778</v>
       </c>
@@ -15809,7 +15825,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>45809</v>
       </c>
@@ -15827,7 +15843,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>45839</v>
       </c>
@@ -15845,7 +15861,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>45870</v>
       </c>
@@ -15863,7 +15879,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>45901</v>
       </c>
@@ -15881,7 +15897,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>45931</v>
       </c>
@@ -15899,7 +15915,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>45962</v>
       </c>
@@ -15917,7 +15933,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>45992</v>
       </c>
@@ -15935,7 +15951,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>46023</v>
       </c>
@@ -15953,7 +15969,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>46054</v>
       </c>
@@ -15971,7 +15987,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>46082</v>
       </c>
@@ -15989,7 +16005,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>46113</v>
       </c>
@@ -16007,7 +16023,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>46143</v>
       </c>
@@ -16025,7 +16041,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>46174</v>
       </c>
@@ -16043,7 +16059,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>46204</v>
       </c>
@@ -16061,7 +16077,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>46235</v>
       </c>
@@ -16079,7 +16095,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>46266</v>
       </c>
@@ -16097,7 +16113,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>46296</v>
       </c>
@@ -16115,7 +16131,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>46327</v>
       </c>
@@ -16133,7 +16149,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>46357</v>
       </c>
@@ -16151,7 +16167,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>46388</v>
       </c>
@@ -16169,7 +16185,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>46419</v>
       </c>
@@ -16187,7 +16203,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>46447</v>
       </c>
@@ -16205,7 +16221,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>46478</v>
       </c>
@@ -16223,7 +16239,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>46508</v>
       </c>
@@ -16241,7 +16257,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>46539</v>
       </c>
@@ -16259,7 +16275,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>46569</v>
       </c>
@@ -16277,7 +16293,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>46600</v>
       </c>
@@ -16295,7 +16311,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <v>46631</v>
       </c>
@@ -16313,7 +16329,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>46661</v>
       </c>
@@ -16331,7 +16347,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>46692</v>
       </c>
@@ -16349,7 +16365,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>46722</v>
       </c>
@@ -16367,7 +16383,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>46753</v>
       </c>
@@ -16385,7 +16401,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>46784</v>
       </c>
@@ -16403,7 +16419,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>46813</v>
       </c>
@@ -16421,7 +16437,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>46844</v>
       </c>
@@ -16439,7 +16455,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <v>46874</v>
       </c>
@@ -16457,7 +16473,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>46905</v>
       </c>
@@ -16475,7 +16491,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>46935</v>
       </c>
@@ -16493,7 +16509,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>46966</v>
       </c>
@@ -16511,7 +16527,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>46997</v>
       </c>
@@ -16529,7 +16545,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>47027</v>
       </c>
@@ -16547,7 +16563,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>47058</v>
       </c>
@@ -16565,7 +16581,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <v>47088</v>
       </c>
@@ -16583,7 +16599,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <v>47119</v>
       </c>
@@ -16601,7 +16617,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>47150</v>
       </c>
@@ -16619,7 +16635,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>47178</v>
       </c>
@@ -16637,7 +16653,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
         <v>47209</v>
       </c>
@@ -16655,7 +16671,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>47239</v>
       </c>
@@ -16673,7 +16689,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <v>47270</v>
       </c>
@@ -16691,7 +16707,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>47300</v>
       </c>
@@ -16709,7 +16725,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <v>47331</v>
       </c>
@@ -16727,7 +16743,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
         <v>47362</v>
       </c>
@@ -16745,7 +16761,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
         <v>47392</v>
       </c>
@@ -16763,7 +16779,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
         <v>47423</v>
       </c>
@@ -16781,7 +16797,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <v>47453</v>
       </c>
@@ -16799,7 +16815,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
         <v>47484</v>
       </c>
@@ -16817,7 +16833,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
         <v>47515</v>
       </c>
@@ -16835,7 +16851,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
         <v>47543</v>
       </c>
@@ -16853,7 +16869,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
         <v>47574</v>
       </c>
@@ -16871,7 +16887,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <v>47604</v>
       </c>
@@ -16889,7 +16905,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
         <v>47635</v>
       </c>
@@ -16907,7 +16923,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <v>47665</v>
       </c>
@@ -16925,7 +16941,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
         <v>47696</v>
       </c>
@@ -16943,7 +16959,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
         <v>47727</v>
       </c>
@@ -16961,7 +16977,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
         <v>47757</v>
       </c>
@@ -16979,7 +16995,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
         <v>47788</v>
       </c>
@@ -16997,7 +17013,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <v>47818</v>
       </c>
@@ -17015,7 +17031,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>47849</v>
       </c>
@@ -17033,7 +17049,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
         <v>47880</v>
       </c>
@@ -17051,7 +17067,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <v>47908</v>
       </c>
@@ -17069,7 +17085,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
         <v>47939</v>
       </c>
@@ -17087,7 +17103,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <v>47969</v>
       </c>
@@ -17105,7 +17121,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
         <v>48000</v>
       </c>
@@ -17123,7 +17139,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
         <v>48030</v>
       </c>
@@ -17141,7 +17157,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
         <v>48061</v>
       </c>
@@ -17159,7 +17175,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
         <v>48092</v>
       </c>
@@ -17177,7 +17193,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
         <v>48122</v>
       </c>
@@ -17195,7 +17211,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
         <v>48153</v>
       </c>
@@ -17213,7 +17229,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
         <v>48183</v>
       </c>
@@ -17231,7 +17247,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
         <v>48214</v>
       </c>
@@ -17249,7 +17265,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
         <v>48245</v>
       </c>
@@ -17267,7 +17283,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
         <v>48274</v>
       </c>
@@ -17285,7 +17301,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
         <v>48305</v>
       </c>
@@ -17303,7 +17319,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
         <v>48335</v>
       </c>
@@ -17321,7 +17337,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
         <v>48366</v>
       </c>
@@ -17339,7 +17355,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
         <v>48396</v>
       </c>
@@ -17357,7 +17373,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
         <v>48427</v>
       </c>
@@ -17375,7 +17391,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
         <v>48458</v>
       </c>
@@ -17393,7 +17409,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
         <v>48488</v>
       </c>
@@ -17411,7 +17427,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
         <v>48519</v>
       </c>
@@ -17429,7 +17445,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
         <v>48549</v>
       </c>
@@ -17447,7 +17463,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
         <v>48580</v>
       </c>
@@ -17465,7 +17481,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
         <v>48611</v>
       </c>
@@ -17483,7 +17499,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
         <v>48639</v>
       </c>
@@ -17501,7 +17517,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
         <v>48670</v>
       </c>
@@ -17519,7 +17535,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
         <v>48700</v>
       </c>
@@ -17537,7 +17553,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <v>48731</v>
       </c>
@@ -17555,7 +17571,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
         <v>48761</v>
       </c>
@@ -17573,7 +17589,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
         <v>48792</v>
       </c>
@@ -17591,7 +17607,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
         <v>48823</v>
       </c>
@@ -17609,7 +17625,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
         <v>48853</v>
       </c>
@@ -17627,7 +17643,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
         <v>48884</v>
       </c>
@@ -17645,7 +17661,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
         <v>48914</v>
       </c>
@@ -17663,7 +17679,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
         <v>48945</v>
       </c>
@@ -17681,7 +17697,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
         <v>48976</v>
       </c>
@@ -17699,7 +17715,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
         <v>49004</v>
       </c>
@@ -17717,7 +17733,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
         <v>49035</v>
       </c>
@@ -17735,7 +17751,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
         <v>49065</v>
       </c>
@@ -17753,7 +17769,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
         <v>49096</v>
       </c>
@@ -17771,7 +17787,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
         <v>49126</v>
       </c>
@@ -17789,7 +17805,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
         <v>49157</v>
       </c>
@@ -17807,7 +17823,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
         <v>49188</v>
       </c>
@@ -17825,7 +17841,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
         <v>49218</v>
       </c>
@@ -17843,7 +17859,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
         <v>49249</v>
       </c>
@@ -17861,7 +17877,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
         <v>49279</v>
       </c>
@@ -17879,7 +17895,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
         <v>49310</v>
       </c>
@@ -17897,7 +17913,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
         <v>49341</v>
       </c>
@@ -17915,7 +17931,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
         <v>49369</v>
       </c>
@@ -17933,7 +17949,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
         <v>49400</v>
       </c>
@@ -17951,7 +17967,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
         <v>49430</v>
       </c>
@@ -17969,7 +17985,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
         <v>49461</v>
       </c>
@@ -17987,7 +18003,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
         <v>49491</v>
       </c>
@@ -18005,7 +18021,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
         <v>49522</v>
       </c>
@@ -18023,7 +18039,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
         <v>49553</v>
       </c>
@@ -18041,7 +18057,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
         <v>49583</v>
       </c>
@@ -18059,7 +18075,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
         <v>49614</v>
       </c>
@@ -18077,7 +18093,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
         <v>49644</v>
       </c>
@@ -18095,7 +18111,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
         <v>49675</v>
       </c>
@@ -18113,7 +18129,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
         <v>49706</v>
       </c>
@@ -18131,7 +18147,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
         <v>49735</v>
       </c>
@@ -18149,7 +18165,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
         <v>49766</v>
       </c>
@@ -18167,7 +18183,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
         <v>49796</v>
       </c>
@@ -18185,7 +18201,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
         <v>49827</v>
       </c>
@@ -18203,7 +18219,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
         <v>49857</v>
       </c>
@@ -18221,7 +18237,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
         <v>49888</v>
       </c>
@@ -18239,7 +18255,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
         <v>49919</v>
       </c>
@@ -18257,7 +18273,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
         <v>49949</v>
       </c>
@@ -18275,7 +18291,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
         <v>49980</v>
       </c>
@@ -18293,7 +18309,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
         <v>50010</v>
       </c>
@@ -18311,7 +18327,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
         <v>50041</v>
       </c>
@@ -18329,7 +18345,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
         <v>50072</v>
       </c>
@@ -18347,7 +18363,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
         <v>50100</v>
       </c>
@@ -18365,7 +18381,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
         <v>50131</v>
       </c>
@@ -18383,7 +18399,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
         <v>50161</v>
       </c>
@@ -18401,7 +18417,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
         <v>50192</v>
       </c>
@@ -18419,7 +18435,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
         <v>50222</v>
       </c>
@@ -18437,7 +18453,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
         <v>50253</v>
       </c>
@@ -18455,7 +18471,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
         <v>50284</v>
       </c>
@@ -18473,7 +18489,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
         <v>50314</v>
       </c>
@@ -18491,7 +18507,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
         <v>50345</v>
       </c>
@@ -18509,7 +18525,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
         <v>50375</v>
       </c>
@@ -18527,7 +18543,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
         <v>50406</v>
       </c>
@@ -18545,7 +18561,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
         <v>50437</v>
       </c>
@@ -18563,7 +18579,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
         <v>50465</v>
       </c>
@@ -18581,7 +18597,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
         <v>50496</v>
       </c>
@@ -18599,7 +18615,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
         <v>50526</v>
       </c>
@@ -18617,7 +18633,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
         <v>50557</v>
       </c>
@@ -18635,7 +18651,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
         <v>50587</v>
       </c>
@@ -18653,7 +18669,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
         <v>50618</v>
       </c>
@@ -18671,7 +18687,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
         <v>50649</v>
       </c>
@@ -18689,7 +18705,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
         <v>50679</v>
       </c>
@@ -18707,7 +18723,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18723,7 +18739,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18739,7 +18755,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40"/>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -18755,7 +18771,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="41"/>
       <c r="B719" s="15"/>
       <c r="C719" s="42"/>
@@ -18786,10 +18802,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18812,7 +18828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -18820,21 +18836,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
@@ -18847,7 +18863,7 @@
       <c r="K1" s="65"/>
       <c r="L1" s="65"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18876,7 +18892,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -18902,17 +18918,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18933,7 +18949,7 @@
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -18960,7 +18976,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18986,7 +19002,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -19012,7 +19028,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -19038,7 +19054,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -19064,7 +19080,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -19090,7 +19106,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -19116,7 +19132,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -19142,7 +19158,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -19162,7 +19178,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -19182,7 +19198,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -19202,7 +19218,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -19223,7 +19239,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -19244,7 +19260,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -19265,7 +19281,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -19286,7 +19302,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -19307,7 +19323,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -19328,7 +19344,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -19349,7 +19365,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -19370,7 +19386,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -19391,7 +19407,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -19412,7 +19428,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -19433,7 +19449,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -19454,7 +19470,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -19475,7 +19491,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -19496,7 +19512,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -19517,7 +19533,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19538,7 +19554,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19559,7 +19575,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -19580,7 +19596,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -19601,7 +19617,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19622,7 +19638,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19631,7 +19647,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19640,7 +19656,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19649,7 +19665,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19658,7 +19674,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19667,7 +19683,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -19676,7 +19692,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -19685,7 +19701,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -19694,7 +19710,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -19703,7 +19719,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -19712,7 +19728,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -19721,7 +19737,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -19730,7 +19746,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -19739,7 +19755,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -19748,7 +19764,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -19757,7 +19773,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -19766,7 +19782,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -19775,7 +19791,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -19784,7 +19800,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -19793,7 +19809,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -19802,7 +19818,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -19811,7 +19827,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -19820,7 +19836,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -19829,7 +19845,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -19838,7 +19854,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -19847,7 +19863,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -19856,7 +19872,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -19865,7 +19881,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -19874,7 +19890,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -19883,7 +19899,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
